--- a/sample/xls/in.xlsx
+++ b/sample/xls/in.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1270">
   <si>
     <t>連番</t>
   </si>
@@ -3827,6 +3827,32 @@
       <t>ケンチョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国籍</t>
+    <rPh sb="0" eb="2">
+      <t>コクセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FR</t>
   </si>
 </sst>
 </file>
@@ -3836,7 +3862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3870,6 +3896,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3888,21 +3922,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4231,10 +4274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:T105"/>
+  <dimension ref="A5:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4242,7 +4285,7 @@
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4294,8 +4337,11 @@
       <c r="T5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4357,7 +4403,7 @@
         <v>16256</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -4418,8 +4464,11 @@
       <c r="T7" s="2">
         <v>97020</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -4480,8 +4529,11 @@
       <c r="T8" s="2">
         <v>16856</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -4542,8 +4594,11 @@
       <c r="T9" s="2">
         <v>76232</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4604,8 +4659,11 @@
       <c r="T10" s="2">
         <v>51996</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10" s="2" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -4666,8 +4724,11 @@
       <c r="T11" s="2">
         <v>23035</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11" s="2" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -4729,7 +4790,7 @@
         <v>62829</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4790,8 +4851,11 @@
       <c r="T13" s="2">
         <v>8401</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -4852,8 +4916,11 @@
       <c r="T14" s="2">
         <v>1032</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14" s="4" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -4915,7 +4982,7 @@
         <v>33602</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -4977,7 +5044,7 @@
         <v>53231</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -5039,7 +5106,7 @@
         <v>63232</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -5101,7 +5168,7 @@
         <v>90499</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -5163,7 +5230,7 @@
         <v>89332</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -5224,8 +5291,9 @@
       <c r="T20" s="2">
         <v>9802</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -5286,8 +5354,9 @@
       <c r="T21" s="2">
         <v>94827</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -5349,7 +5418,7 @@
         <v>21956</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -5411,7 +5480,7 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -5472,8 +5541,9 @@
       <c r="T24" s="2">
         <v>12862</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -5534,8 +5604,9 @@
       <c r="T25" s="2">
         <v>61640</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -5597,7 +5668,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5659,7 +5730,7 @@
         <v>39452</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -5721,7 +5792,7 @@
         <v>66428</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -5783,7 +5854,7 @@
         <v>17610</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -5845,7 +5916,7 @@
         <v>38333</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -5907,7 +5978,7 @@
         <v>48483</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -6961,7 +7032,7 @@
         <v>18789</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:21">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -7022,8 +7093,11 @@
       <c r="T49" s="2">
         <v>14199</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="U49" s="2" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -7084,8 +7158,11 @@
       <c r="T50" s="2">
         <v>67878</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="U50" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -7146,8 +7223,11 @@
       <c r="T51" s="2">
         <v>47338</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="U51" s="2" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -7209,7 +7289,7 @@
         <v>82427</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:21">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -7271,7 +7351,7 @@
         <v>45299</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:21">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -7333,7 +7413,7 @@
         <v>96784</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:21">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -7395,7 +7475,7 @@
         <v>95103</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:21">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -7457,7 +7537,7 @@
         <v>42619</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:21">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -7519,7 +7599,7 @@
         <v>79772</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:21">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -7581,7 +7661,7 @@
         <v>76095</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:21">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -7643,7 +7723,7 @@
         <v>84013</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:21">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -7705,7 +7785,7 @@
         <v>18390</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:21">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -7767,7 +7847,7 @@
         <v>21159</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:21">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -7829,7 +7909,7 @@
         <v>57320</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:21">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -7891,7 +7971,7 @@
         <v>34112</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:21">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -10498,6 +10578,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sample/xls/in.xlsx
+++ b/sample/xls/in.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="5360" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ダミーシート" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="1271">
   <si>
     <t>連番</t>
   </si>
@@ -3853,6 +3853,19 @@
   </si>
   <si>
     <t>FR</t>
+  </si>
+  <si>
+    <t>現住都道府県</t>
+    <rPh sb="0" eb="1">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>キョジュウトドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3922,8 +3935,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3938,14 +3953,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4274,18 +4291,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:U105"/>
+  <dimension ref="A5:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:U14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4332,16 +4350,19 @@
         <v>14</v>
       </c>
       <c r="S5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="T5" t="s">
         <v>15</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>16</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -4397,13 +4418,16 @@
         <v>31</v>
       </c>
       <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>16256</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -4459,16 +4483,19 @@
         <v>48</v>
       </c>
       <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>97020</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -4524,16 +4551,19 @@
         <v>62</v>
       </c>
       <c r="S8" t="s">
+        <v>357</v>
+      </c>
+      <c r="T8" t="s">
         <v>63</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>16856</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -4589,16 +4619,19 @@
         <v>77</v>
       </c>
       <c r="S9" t="s">
+        <v>357</v>
+      </c>
+      <c r="T9" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>76232</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -4654,16 +4687,19 @@
         <v>56</v>
       </c>
       <c r="S10" t="s">
+        <v>420</v>
+      </c>
+      <c r="T10" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>51996</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -4719,16 +4755,19 @@
         <v>105</v>
       </c>
       <c r="S11" t="s">
+        <v>420</v>
+      </c>
+      <c r="T11" t="s">
         <v>106</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>23035</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>1267</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -4784,13 +4823,16 @@
         <v>121</v>
       </c>
       <c r="S12" t="s">
+        <v>420</v>
+      </c>
+      <c r="T12" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>62829</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -4846,16 +4888,19 @@
         <v>136</v>
       </c>
       <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="2">
         <v>8401</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="V13" s="4" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -4911,16 +4956,19 @@
         <v>77</v>
       </c>
       <c r="S14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" t="s">
         <v>91</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>1032</v>
       </c>
-      <c r="U14" s="4" t="s">
+      <c r="V14" s="4" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -4976,13 +5024,16 @@
         <v>136</v>
       </c>
       <c r="S15" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" t="s">
         <v>106</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="2">
         <v>33602</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -5038,13 +5089,16 @@
         <v>178</v>
       </c>
       <c r="S16" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" t="s">
         <v>106</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <v>53231</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -5100,13 +5154,16 @@
         <v>192</v>
       </c>
       <c r="S17" t="s">
+        <v>614</v>
+      </c>
+      <c r="T17" t="s">
         <v>63</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <v>63232</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:22">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -5162,13 +5219,16 @@
         <v>206</v>
       </c>
       <c r="S18" t="s">
+        <v>277</v>
+      </c>
+      <c r="T18" t="s">
         <v>106</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="2">
         <v>90499</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -5224,13 +5284,16 @@
         <v>206</v>
       </c>
       <c r="S19" t="s">
+        <v>277</v>
+      </c>
+      <c r="T19" t="s">
         <v>106</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <v>89332</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -5286,14 +5349,17 @@
         <v>25</v>
       </c>
       <c r="S20" t="s">
+        <v>277</v>
+      </c>
+      <c r="T20" t="s">
         <v>106</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <v>9802</v>
       </c>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -5349,14 +5415,17 @@
         <v>71</v>
       </c>
       <c r="S21" t="s">
+        <v>277</v>
+      </c>
+      <c r="T21" t="s">
         <v>106</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <v>94827</v>
       </c>
-      <c r="U21" s="2"/>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -5412,13 +5481,16 @@
         <v>41</v>
       </c>
       <c r="S22" t="s">
+        <v>277</v>
+      </c>
+      <c r="T22" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <v>21956</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -5474,13 +5546,16 @@
         <v>129</v>
       </c>
       <c r="S23" t="s">
+        <v>206</v>
+      </c>
+      <c r="T23" t="s">
         <v>63</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <v>45405</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -5536,14 +5611,17 @@
         <v>277</v>
       </c>
       <c r="S24" t="s">
+        <v>206</v>
+      </c>
+      <c r="T24" t="s">
         <v>91</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <v>12862</v>
       </c>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21">
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -5599,14 +5677,17 @@
         <v>291</v>
       </c>
       <c r="S25" t="s">
+        <v>206</v>
+      </c>
+      <c r="T25" t="s">
         <v>106</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="2">
         <v>61640</v>
       </c>
-      <c r="U25" s="2"/>
-    </row>
-    <row r="26" spans="1:21">
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -5662,13 +5743,16 @@
         <v>296</v>
       </c>
       <c r="S26" t="s">
+        <v>1132</v>
+      </c>
+      <c r="T26" t="s">
         <v>32</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <v>5005</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -5724,13 +5808,16 @@
         <v>121</v>
       </c>
       <c r="S27" t="s">
+        <v>511</v>
+      </c>
+      <c r="T27" t="s">
         <v>32</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <v>39452</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -5786,13 +5873,16 @@
         <v>328</v>
       </c>
       <c r="S28" t="s">
+        <v>192</v>
+      </c>
+      <c r="T28" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <v>66428</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -5848,13 +5938,16 @@
         <v>114</v>
       </c>
       <c r="S29" t="s">
+        <v>192</v>
+      </c>
+      <c r="T29" t="s">
         <v>63</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <v>17610</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -5910,13 +6003,16 @@
         <v>349</v>
       </c>
       <c r="S30" t="s">
+        <v>192</v>
+      </c>
+      <c r="T30" t="s">
         <v>91</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <v>38333</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -5972,13 +6068,16 @@
         <v>357</v>
       </c>
       <c r="S31" t="s">
+        <v>192</v>
+      </c>
+      <c r="T31" t="s">
         <v>106</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <v>48483</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -6034,13 +6133,16 @@
         <v>365</v>
       </c>
       <c r="S32" t="s">
+        <v>200</v>
+      </c>
+      <c r="T32" t="s">
         <v>32</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <v>6477</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -6096,13 +6198,16 @@
         <v>277</v>
       </c>
       <c r="S33" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" t="s">
         <v>91</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <v>52582</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -6158,13 +6263,16 @@
         <v>171</v>
       </c>
       <c r="S34" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" t="s">
         <v>106</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <v>4269</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -6220,13 +6328,16 @@
         <v>192</v>
       </c>
       <c r="S35" t="s">
+        <v>171</v>
+      </c>
+      <c r="T35" t="s">
         <v>32</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <v>65948</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -6282,13 +6393,16 @@
         <v>291</v>
       </c>
       <c r="S36" t="s">
+        <v>171</v>
+      </c>
+      <c r="T36" t="s">
         <v>91</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <v>38325</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -6344,13 +6458,16 @@
         <v>192</v>
       </c>
       <c r="S37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s">
         <v>32</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
         <v>12583</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -6406,13 +6523,16 @@
         <v>291</v>
       </c>
       <c r="S38" t="s">
+        <v>114</v>
+      </c>
+      <c r="T38" t="s">
         <v>91</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>35319</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -6468,13 +6588,16 @@
         <v>214</v>
       </c>
       <c r="S39" t="s">
+        <v>114</v>
+      </c>
+      <c r="T39" t="s">
         <v>63</v>
       </c>
-      <c r="T39" s="2">
+      <c r="U39" s="2">
         <v>88937</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -6530,13 +6653,16 @@
         <v>328</v>
       </c>
       <c r="S40" t="s">
+        <v>486</v>
+      </c>
+      <c r="T40" t="s">
         <v>32</v>
       </c>
-      <c r="T40" s="2">
+      <c r="U40" s="2">
         <v>3276</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -6592,13 +6718,16 @@
         <v>31</v>
       </c>
       <c r="S41" t="s">
+        <v>486</v>
+      </c>
+      <c r="T41" t="s">
         <v>106</v>
       </c>
-      <c r="T41" s="2">
+      <c r="U41" s="2">
         <v>16334</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -6654,13 +6783,16 @@
         <v>328</v>
       </c>
       <c r="S42" t="s">
+        <v>486</v>
+      </c>
+      <c r="T42" t="s">
         <v>106</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <v>68400</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -6716,13 +6848,16 @@
         <v>77</v>
       </c>
       <c r="S43" t="s">
+        <v>259</v>
+      </c>
+      <c r="T43" t="s">
         <v>63</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <v>46776</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:21">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -6778,13 +6913,16 @@
         <v>486</v>
       </c>
       <c r="S44" t="s">
+        <v>259</v>
+      </c>
+      <c r="T44" t="s">
         <v>32</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <v>31151</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:21">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -6840,13 +6978,16 @@
         <v>517</v>
       </c>
       <c r="S45" t="s">
+        <v>296</v>
+      </c>
+      <c r="T45" t="s">
         <v>106</v>
       </c>
-      <c r="T45" s="2">
+      <c r="U45" s="2">
         <v>6976</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:21">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -6902,13 +7043,16 @@
         <v>259</v>
       </c>
       <c r="S46" t="s">
+        <v>296</v>
+      </c>
+      <c r="T46" t="s">
         <v>106</v>
       </c>
-      <c r="T46" s="2">
+      <c r="U46" s="2">
         <v>56947</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:21">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -6964,13 +7108,16 @@
         <v>192</v>
       </c>
       <c r="S47" t="s">
+        <v>365</v>
+      </c>
+      <c r="T47" t="s">
         <v>32</v>
       </c>
-      <c r="T47" s="2">
+      <c r="U47" s="2">
         <v>68451</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:21">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -7026,13 +7173,16 @@
         <v>56</v>
       </c>
       <c r="S48" t="s">
+        <v>365</v>
+      </c>
+      <c r="T48" t="s">
         <v>91</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <v>18789</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:22">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -7088,16 +7238,19 @@
         <v>186</v>
       </c>
       <c r="S49" t="s">
+        <v>365</v>
+      </c>
+      <c r="T49" t="s">
         <v>32</v>
       </c>
-      <c r="T49" s="2">
+      <c r="U49" s="2">
         <v>14199</v>
       </c>
-      <c r="U49" s="2" t="s">
+      <c r="V49" s="2" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:22">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -7153,16 +7306,19 @@
         <v>277</v>
       </c>
       <c r="S50" t="s">
+        <v>62</v>
+      </c>
+      <c r="T50" t="s">
         <v>106</v>
       </c>
-      <c r="T50" s="2">
+      <c r="U50" s="2">
         <v>67878</v>
       </c>
-      <c r="U50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:22">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -7218,16 +7374,19 @@
         <v>62</v>
       </c>
       <c r="S51" t="s">
+        <v>62</v>
+      </c>
+      <c r="T51" t="s">
         <v>32</v>
       </c>
-      <c r="T51" s="2">
+      <c r="U51" s="2">
         <v>47338</v>
       </c>
-      <c r="U51" s="2" t="s">
+      <c r="V51" s="2" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:22">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -7283,13 +7442,16 @@
         <v>214</v>
       </c>
       <c r="S52" t="s">
+        <v>62</v>
+      </c>
+      <c r="T52" t="s">
         <v>32</v>
       </c>
-      <c r="T52" s="2">
+      <c r="U52" s="2">
         <v>82427</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:22">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -7345,13 +7507,16 @@
         <v>602</v>
       </c>
       <c r="S53" t="s">
+        <v>48</v>
+      </c>
+      <c r="T53" t="s">
         <v>32</v>
       </c>
-      <c r="T53" s="2">
+      <c r="U53" s="2">
         <v>45299</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:22">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -7407,13 +7572,16 @@
         <v>614</v>
       </c>
       <c r="S54" t="s">
+        <v>178</v>
+      </c>
+      <c r="T54" t="s">
         <v>91</v>
       </c>
-      <c r="T54" s="2">
+      <c r="U54" s="2">
         <v>96784</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:22">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -7469,13 +7637,16 @@
         <v>365</v>
       </c>
       <c r="S55" t="s">
+        <v>178</v>
+      </c>
+      <c r="T55" t="s">
         <v>106</v>
       </c>
-      <c r="T55" s="2">
+      <c r="U55" s="2">
         <v>95103</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:22">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -7531,13 +7702,16 @@
         <v>636</v>
       </c>
       <c r="S56" t="s">
+        <v>636</v>
+      </c>
+      <c r="T56" t="s">
         <v>32</v>
       </c>
-      <c r="T56" s="2">
+      <c r="U56" s="2">
         <v>42619</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:22">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -7593,13 +7767,16 @@
         <v>129</v>
       </c>
       <c r="S57" t="s">
+        <v>636</v>
+      </c>
+      <c r="T57" t="s">
         <v>91</v>
       </c>
-      <c r="T57" s="2">
+      <c r="U57" s="2">
         <v>79772</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:22">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -7655,13 +7832,16 @@
         <v>178</v>
       </c>
       <c r="S58" t="s">
+        <v>99</v>
+      </c>
+      <c r="T58" t="s">
         <v>91</v>
       </c>
-      <c r="T58" s="2">
+      <c r="U58" s="2">
         <v>76095</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:22">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -7717,13 +7897,16 @@
         <v>349</v>
       </c>
       <c r="S59" t="s">
+        <v>77</v>
+      </c>
+      <c r="T59" t="s">
         <v>106</v>
       </c>
-      <c r="T59" s="2">
+      <c r="U59" s="2">
         <v>84013</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -7779,13 +7962,16 @@
         <v>486</v>
       </c>
       <c r="S60" t="s">
+        <v>77</v>
+      </c>
+      <c r="T60" t="s">
         <v>106</v>
       </c>
-      <c r="T60" s="2">
+      <c r="U60" s="2">
         <v>18390</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:22">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -7841,13 +8027,16 @@
         <v>171</v>
       </c>
       <c r="S61" t="s">
+        <v>77</v>
+      </c>
+      <c r="T61" t="s">
         <v>106</v>
       </c>
-      <c r="T61" s="2">
+      <c r="U61" s="2">
         <v>21159</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:22">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -7903,13 +8092,16 @@
         <v>157</v>
       </c>
       <c r="S62" t="s">
+        <v>121</v>
+      </c>
+      <c r="T62" t="s">
         <v>106</v>
       </c>
-      <c r="T62" s="2">
+      <c r="U62" s="2">
         <v>57320</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:22">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -7965,13 +8157,16 @@
         <v>186</v>
       </c>
       <c r="S63" t="s">
+        <v>121</v>
+      </c>
+      <c r="T63" t="s">
         <v>106</v>
       </c>
-      <c r="T63" s="2">
+      <c r="U63" s="2">
         <v>34112</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:22">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -8027,13 +8222,16 @@
         <v>349</v>
       </c>
       <c r="S64" t="s">
+        <v>121</v>
+      </c>
+      <c r="T64" t="s">
         <v>63</v>
       </c>
-      <c r="T64" s="2">
+      <c r="U64" s="2">
         <v>46956</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:21">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -8089,13 +8287,16 @@
         <v>486</v>
       </c>
       <c r="S65" t="s">
+        <v>396</v>
+      </c>
+      <c r="T65" t="s">
         <v>63</v>
       </c>
-      <c r="T65" s="2">
+      <c r="U65" s="2">
         <v>4202</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:21">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -8151,13 +8352,16 @@
         <v>259</v>
       </c>
       <c r="S66" t="s">
+        <v>328</v>
+      </c>
+      <c r="T66" t="s">
         <v>91</v>
       </c>
-      <c r="T66" s="2">
+      <c r="U66" s="2">
         <v>77382</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:21">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -8213,13 +8417,16 @@
         <v>420</v>
       </c>
       <c r="S67" t="s">
+        <v>328</v>
+      </c>
+      <c r="T67" t="s">
         <v>32</v>
       </c>
-      <c r="T67" s="2">
+      <c r="U67" s="2">
         <v>89015</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:21">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -8275,13 +8482,16 @@
         <v>644</v>
       </c>
       <c r="S68" t="s">
+        <v>328</v>
+      </c>
+      <c r="T68" t="s">
         <v>63</v>
       </c>
-      <c r="T68" s="2">
+      <c r="U68" s="2">
         <v>58461</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:21">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -8337,13 +8547,16 @@
         <v>291</v>
       </c>
       <c r="S69" t="s">
+        <v>328</v>
+      </c>
+      <c r="T69" t="s">
         <v>32</v>
       </c>
-      <c r="T69" s="2">
+      <c r="U69" s="2">
         <v>63434</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:21">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -8399,13 +8612,16 @@
         <v>277</v>
       </c>
       <c r="S70" t="s">
+        <v>644</v>
+      </c>
+      <c r="T70" t="s">
         <v>63</v>
       </c>
-      <c r="T70" s="2">
+      <c r="U70" s="2">
         <v>29056</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:21">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -8461,13 +8677,16 @@
         <v>62</v>
       </c>
       <c r="S71" t="s">
+        <v>291</v>
+      </c>
+      <c r="T71" t="s">
         <v>32</v>
       </c>
-      <c r="T71" s="2">
+      <c r="U71" s="2">
         <v>78725</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:21">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -8523,13 +8742,16 @@
         <v>25</v>
       </c>
       <c r="S72" t="s">
+        <v>291</v>
+      </c>
+      <c r="T72" t="s">
         <v>106</v>
       </c>
-      <c r="T72" s="2">
+      <c r="U72" s="2">
         <v>32065</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:21">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -8585,13 +8807,16 @@
         <v>636</v>
       </c>
       <c r="S73" t="s">
+        <v>291</v>
+      </c>
+      <c r="T73" t="s">
         <v>32</v>
       </c>
-      <c r="T73" s="2">
+      <c r="U73" s="2">
         <v>51046</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:21">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -8647,13 +8872,16 @@
         <v>420</v>
       </c>
       <c r="S74" t="s">
+        <v>291</v>
+      </c>
+      <c r="T74" t="s">
         <v>32</v>
       </c>
-      <c r="T74" s="2">
+      <c r="U74" s="2">
         <v>76305</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:21">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -8709,13 +8937,16 @@
         <v>840</v>
       </c>
       <c r="S75" t="s">
+        <v>31</v>
+      </c>
+      <c r="T75" t="s">
         <v>91</v>
       </c>
-      <c r="T75" s="2">
+      <c r="U75" s="2">
         <v>86580</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:21">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -8771,13 +9002,16 @@
         <v>85</v>
       </c>
       <c r="S76" t="s">
+        <v>31</v>
+      </c>
+      <c r="T76" t="s">
         <v>91</v>
       </c>
-      <c r="T76" s="2">
+      <c r="U76" s="2">
         <v>12868</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:21">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -8833,13 +9067,16 @@
         <v>206</v>
       </c>
       <c r="S77" t="s">
+        <v>136</v>
+      </c>
+      <c r="T77" t="s">
         <v>32</v>
       </c>
-      <c r="T77" s="2">
+      <c r="U77" s="2">
         <v>99915</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:21">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -8895,13 +9132,16 @@
         <v>99</v>
       </c>
       <c r="S78" t="s">
+        <v>136</v>
+      </c>
+      <c r="T78" t="s">
         <v>106</v>
       </c>
-      <c r="T78" s="2">
+      <c r="U78" s="2">
         <v>15434</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:21">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -8957,13 +9197,16 @@
         <v>56</v>
       </c>
       <c r="S79" t="s">
+        <v>136</v>
+      </c>
+      <c r="T79" t="s">
         <v>63</v>
       </c>
-      <c r="T79" s="2">
+      <c r="U79" s="2">
         <v>23574</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:21">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -9019,13 +9262,16 @@
         <v>136</v>
       </c>
       <c r="S80" t="s">
+        <v>56</v>
+      </c>
+      <c r="T80" t="s">
         <v>106</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>9154</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:21">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -9081,13 +9327,16 @@
         <v>365</v>
       </c>
       <c r="S81" t="s">
+        <v>56</v>
+      </c>
+      <c r="T81" t="s">
         <v>32</v>
       </c>
-      <c r="T81" s="2">
+      <c r="U81" s="2">
         <v>25793</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:21">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -9143,13 +9392,16 @@
         <v>396</v>
       </c>
       <c r="S82" t="s">
+        <v>56</v>
+      </c>
+      <c r="T82" t="s">
         <v>32</v>
       </c>
-      <c r="T82" s="2">
+      <c r="U82" s="2">
         <v>69642</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:21">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -9205,13 +9457,16 @@
         <v>602</v>
       </c>
       <c r="S83" t="s">
+        <v>157</v>
+      </c>
+      <c r="T83" t="s">
         <v>32</v>
       </c>
-      <c r="T83" s="2">
+      <c r="U83" s="2">
         <v>48704</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:21">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -9267,13 +9522,16 @@
         <v>85</v>
       </c>
       <c r="S84" t="s">
+        <v>214</v>
+      </c>
+      <c r="T84" t="s">
         <v>91</v>
       </c>
-      <c r="T84" s="2">
+      <c r="U84" s="2">
         <v>62454</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:21">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -9329,13 +9587,16 @@
         <v>200</v>
       </c>
       <c r="S85" t="s">
+        <v>214</v>
+      </c>
+      <c r="T85" t="s">
         <v>32</v>
       </c>
-      <c r="T85" s="2">
+      <c r="U85" s="2">
         <v>70591</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:21">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -9391,13 +9652,16 @@
         <v>517</v>
       </c>
       <c r="S86" t="s">
+        <v>186</v>
+      </c>
+      <c r="T86" t="s">
         <v>32</v>
       </c>
-      <c r="T86" s="2">
+      <c r="U86" s="2">
         <v>92730</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:21">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -9453,13 +9717,16 @@
         <v>245</v>
       </c>
       <c r="S87" t="s">
+        <v>186</v>
+      </c>
+      <c r="T87" t="s">
         <v>63</v>
       </c>
-      <c r="T87" s="2">
+      <c r="U87" s="2">
         <v>70769</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:21">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -9515,13 +9782,16 @@
         <v>171</v>
       </c>
       <c r="S88" t="s">
+        <v>245</v>
+      </c>
+      <c r="T88" t="s">
         <v>32</v>
       </c>
-      <c r="T88" s="2">
+      <c r="U88" s="2">
         <v>91592</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:21">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -9577,13 +9847,16 @@
         <v>105</v>
       </c>
       <c r="S89" t="s">
+        <v>129</v>
+      </c>
+      <c r="T89" t="s">
         <v>106</v>
       </c>
-      <c r="T89" s="2">
+      <c r="U89" s="2">
         <v>59768</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:21">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -9639,13 +9912,16 @@
         <v>420</v>
       </c>
       <c r="S90" t="s">
+        <v>129</v>
+      </c>
+      <c r="T90" t="s">
         <v>106</v>
       </c>
-      <c r="T90" s="2">
+      <c r="U90" s="2">
         <v>64075</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:21">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -9701,13 +9977,16 @@
         <v>25</v>
       </c>
       <c r="S91" t="s">
+        <v>129</v>
+      </c>
+      <c r="T91" t="s">
         <v>63</v>
       </c>
-      <c r="T91" s="2">
+      <c r="U91" s="2">
         <v>58411</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:21">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -9763,13 +10042,16 @@
         <v>25</v>
       </c>
       <c r="S92" t="s">
+        <v>602</v>
+      </c>
+      <c r="T92" t="s">
         <v>91</v>
       </c>
-      <c r="T92" s="2">
+      <c r="U92" s="2">
         <v>14388</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:21">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -9825,13 +10107,16 @@
         <v>71</v>
       </c>
       <c r="S93" t="s">
+        <v>602</v>
+      </c>
+      <c r="T93" t="s">
         <v>91</v>
       </c>
-      <c r="T93" s="2">
+      <c r="U93" s="2">
         <v>72529</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:21">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -9887,13 +10172,16 @@
         <v>328</v>
       </c>
       <c r="S94" t="s">
+        <v>602</v>
+      </c>
+      <c r="T94" t="s">
         <v>91</v>
       </c>
-      <c r="T94" s="2">
+      <c r="U94" s="2">
         <v>79848</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:21">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -9949,13 +10237,16 @@
         <v>511</v>
       </c>
       <c r="S95" t="s">
+        <v>517</v>
+      </c>
+      <c r="T95" t="s">
         <v>106</v>
       </c>
-      <c r="T95" s="2">
+      <c r="U95" s="2">
         <v>64271</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:21">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -10011,13 +10302,16 @@
         <v>602</v>
       </c>
       <c r="S96" t="s">
+        <v>517</v>
+      </c>
+      <c r="T96" t="s">
         <v>32</v>
       </c>
-      <c r="T96" s="2">
+      <c r="U96" s="2">
         <v>67159</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:21">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -10073,13 +10367,16 @@
         <v>517</v>
       </c>
       <c r="S97" t="s">
+        <v>517</v>
+      </c>
+      <c r="T97" t="s">
         <v>91</v>
       </c>
-      <c r="T97" s="2">
+      <c r="U97" s="2">
         <v>99920</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:21">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -10135,13 +10432,16 @@
         <v>129</v>
       </c>
       <c r="S98" t="s">
+        <v>840</v>
+      </c>
+      <c r="T98" t="s">
         <v>63</v>
       </c>
-      <c r="T98" s="2">
+      <c r="U98" s="2">
         <v>84322</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:21">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -10197,13 +10497,16 @@
         <v>114</v>
       </c>
       <c r="S99" t="s">
+        <v>349</v>
+      </c>
+      <c r="T99" t="s">
         <v>106</v>
       </c>
-      <c r="T99" s="2">
+      <c r="U99" s="2">
         <v>42797</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:21">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -10259,13 +10562,16 @@
         <v>357</v>
       </c>
       <c r="S100" t="s">
+        <v>349</v>
+      </c>
+      <c r="T100" t="s">
         <v>106</v>
       </c>
-      <c r="T100" s="2">
+      <c r="U100" s="2">
         <v>71806</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:21">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -10321,13 +10627,16 @@
         <v>171</v>
       </c>
       <c r="S101" t="s">
+        <v>349</v>
+      </c>
+      <c r="T101" t="s">
         <v>32</v>
       </c>
-      <c r="T101" s="2">
+      <c r="U101" s="2">
         <v>38669</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:21">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -10383,13 +10692,16 @@
         <v>121</v>
       </c>
       <c r="S102" t="s">
+        <v>105</v>
+      </c>
+      <c r="T102" t="s">
         <v>32</v>
       </c>
-      <c r="T102" s="2">
+      <c r="U102" s="2">
         <v>76687</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:21">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -10445,13 +10757,16 @@
         <v>296</v>
       </c>
       <c r="S103" t="s">
+        <v>105</v>
+      </c>
+      <c r="T103" t="s">
         <v>106</v>
       </c>
-      <c r="T103" s="2">
+      <c r="U103" s="2">
         <v>50631</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:21">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -10507,13 +10822,16 @@
         <v>1132</v>
       </c>
       <c r="S104" t="s">
+        <v>71</v>
+      </c>
+      <c r="T104" t="s">
         <v>106</v>
       </c>
-      <c r="T104" s="2">
+      <c r="U104" s="2">
         <v>74495</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:21">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -10569,13 +10887,19 @@
         <v>277</v>
       </c>
       <c r="S105" t="s">
+        <v>71</v>
+      </c>
+      <c r="T105" t="s">
         <v>32</v>
       </c>
-      <c r="T105" s="2">
+      <c r="U105" s="2">
         <v>90407</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="S6:S105">
+    <sortCondition descending="1" ref="S6"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
